--- a/JSON-Tools/ExcelData/2export_orders.xlsx
+++ b/JSON-Tools/ExcelData/2export_orders.xlsx
@@ -7,172 +7,355 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Export Daten" sheetId="1" r:id="rId2"/>
+    <sheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Dashboard &amp; Analyse" sheetId="2" r:id="rId7"/>
   </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="125725" fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kunde</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Erstellt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Menge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Einzelpreis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zeilenwert</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gesamtbetrag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GlobalTech GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Z300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Schmidt GmbH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Holz &amp; Co KG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Finanz AG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A100</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>C300</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>Z300</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>X101</t>
+  </si>
+  <si>
+    <t>D400</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t>Erstellt</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Einzelpreis</t>
+  </si>
+  <si>
+    <t>Zeilenwert</t>
+  </si>
+  <si>
+    <t>Gesamtbetrag</t>
+  </si>
+  <si>
+    <t>GlobalTech GmbH</t>
+  </si>
+  <si>
+    <t>Schmidt GmbH</t>
+  </si>
+  <si>
+    <t>Holz &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Finanz AG</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
-    <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="164" formatCode="dd.MM.yyyy"/>
-    <x:numFmt numFmtId="165" formatCode="#,##0.00 €"/>
+    <numFmt xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" formatCode=""/>
+    <numFmt xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" formatCode="dd.MM.yyyy"/>
+    <numFmt xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" formatCode="#,##0.00 €"/>
   </x:numFmts>
   <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+    <font xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:vertAlign xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="baseline"/>
+      <d:sz xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="11"/>
+      <d:color xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" rgb="FF000000"/>
+      <d:name xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="Calibri"/>
+      <d:family xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="2"/>
+    </font>
+    <font xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:b xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:vertAlign xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="baseline"/>
+      <d:sz xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="11"/>
+      <d:color xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" rgb="FF000000"/>
+      <d:name xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="Calibri"/>
+      <d:family xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" val="2"/>
+    </font>
   </x:fonts>
   <x:fills count="3">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFD3D3D3"/>
-      </x:patternFill>
-    </x:fill>
+    <fill xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:patternFill xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" patternType="none"/>
+    </fill>
+    <fill xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:patternFill xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" patternType="gray125"/>
+    </fill>
+    <fill xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:patternFill xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main" patternType="solid">
+        <d:fgColor rgb="FFD3D3D3"/>
+      </d:patternFill>
+    </fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
+    <border xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:left xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:right xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:top xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:bottom xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+      <d:diagonal xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+    </border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="1">
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellXfs count="1">
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Top 10 Produkte (Umsatz)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Umsatzsumme</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Dashboard &amp; Analyse'!$Z$1:$Z$9</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dashboard &amp; Analyse'!$AA$1:$AA$9</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Produkt (SKU)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Umsatz in €</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0 €" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900"/>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="ProductBarChart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,7 +642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -469,54 +652,54 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="4.996339" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="16.853482" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.424911" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="5.282054" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="7.282054" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="4.996339" customWidth="1"/>
+    <x:col min="2" max="2" width="16.853482" customWidth="1"/>
+    <x:col min="3" max="3" width="10.424911" customWidth="1"/>
+    <x:col min="4" max="4" width="5.282054" customWidth="1"/>
+    <x:col min="5" max="5" width="7.282054" customWidth="1"/>
+    <x:col min="6" max="6" width="10.282054" customWidth="1"/>
+    <x:col min="7" max="7" width="10.853482" customWidth="1"/>
+    <x:col min="8" max="8" width="13.710625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1">
       <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
       <x:c r="A2" s="0">
         <x:v>3000</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="2">
         <x:v>45139</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>7</x:v>
@@ -531,18 +714,18 @@
         <x:v>3636.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8">
+    <x:row r="3">
       <x:c r="A3" s="0">
         <x:v>3001</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>4</x:v>
@@ -557,18 +740,18 @@
         <x:v>13054.12</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:8">
+    <x:row r="4">
       <x:c r="A4" s="0">
         <x:v>3001</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>5</x:v>
@@ -583,18 +766,18 @@
         <x:v>13054.12</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
+    <x:row r="5">
       <x:c r="A5" s="0">
         <x:v>3001</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>6</x:v>
@@ -609,18 +792,18 @@
         <x:v>13054.12</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8">
+    <x:row r="6">
       <x:c r="A6" s="0">
         <x:v>3002</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>2</x:v>
@@ -635,18 +818,18 @@
         <x:v>19106.04</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8">
+    <x:row r="7">
       <x:c r="A7" s="0">
         <x:v>3002</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>5</x:v>
@@ -661,18 +844,18 @@
         <x:v>19106.04</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8">
+    <x:row r="8">
       <x:c r="A8" s="0">
         <x:v>3002</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>10</x:v>
@@ -687,18 +870,18 @@
         <x:v>19106.04</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:8">
+    <x:row r="9">
       <x:c r="A9" s="0">
         <x:v>3003</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="2">
         <x:v>45142</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>4</x:v>
@@ -713,18 +896,18 @@
         <x:v>16909.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:8">
+    <x:row r="10">
       <x:c r="A10" s="0">
         <x:v>3003</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>45142</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E10" s="0">
         <x:v>7</x:v>
@@ -739,18 +922,18 @@
         <x:v>16909.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
+    <x:row r="11">
       <x:c r="A11" s="0">
         <x:v>3003</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>45142</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="0">
         <x:v>10</x:v>
@@ -765,18 +948,18 @@
         <x:v>16909.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:8">
+    <x:row r="12">
       <x:c r="A12" s="0">
         <x:v>3004</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E12" s="0">
         <x:v>5</x:v>
@@ -791,18 +974,18 @@
         <x:v>8694.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8">
+    <x:row r="13">
       <x:c r="A13" s="0">
         <x:v>3004</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E13" s="0">
         <x:v>10</x:v>
@@ -817,18 +1000,18 @@
         <x:v>8694.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:8">
+    <x:row r="14">
       <x:c r="A14" s="0">
         <x:v>3004</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E14" s="0">
         <x:v>1</x:v>
@@ -843,18 +1026,18 @@
         <x:v>8694.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:8">
+    <x:row r="15">
       <x:c r="A15" s="0">
         <x:v>3004</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E15" s="0">
         <x:v>2</x:v>
@@ -869,18 +1052,18 @@
         <x:v>8694.73</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:8">
+    <x:row r="16">
       <x:c r="A16" s="0">
         <x:v>3005</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E16" s="0">
         <x:v>7</x:v>
@@ -895,18 +1078,18 @@
         <x:v>20830.12</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:8">
+    <x:row r="17">
       <x:c r="A17" s="0">
         <x:v>3005</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C17" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E17" s="0">
         <x:v>4</x:v>
@@ -921,18 +1104,18 @@
         <x:v>20830.12</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:8">
+    <x:row r="18">
       <x:c r="A18" s="0">
         <x:v>3005</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E18" s="0">
         <x:v>8</x:v>
@@ -947,18 +1130,18 @@
         <x:v>20830.12</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:8">
+    <x:row r="19">
       <x:c r="A19" s="0">
         <x:v>3006</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C19" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E19" s="0">
         <x:v>2</x:v>
@@ -973,18 +1156,18 @@
         <x:v>12446.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:8">
+    <x:row r="20">
       <x:c r="A20" s="0">
         <x:v>3006</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C20" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E20" s="0">
         <x:v>6</x:v>
@@ -999,18 +1182,18 @@
         <x:v>12446.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:8">
+    <x:row r="21">
       <x:c r="A21" s="0">
         <x:v>3006</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E21" s="0">
         <x:v>3</x:v>
@@ -1025,18 +1208,18 @@
         <x:v>12446.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:8">
+    <x:row r="22">
       <x:c r="A22" s="0">
         <x:v>3006</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C22" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E22" s="0">
         <x:v>8</x:v>
@@ -1051,18 +1234,18 @@
         <x:v>12446.49</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:8">
+    <x:row r="23">
       <x:c r="A23" s="0">
         <x:v>3007</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C23" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E23" s="0">
         <x:v>6</x:v>
@@ -1077,18 +1260,18 @@
         <x:v>12436.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:8">
+    <x:row r="24">
       <x:c r="A24" s="0">
         <x:v>3007</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C24" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E24" s="0">
         <x:v>3</x:v>
@@ -1103,18 +1286,18 @@
         <x:v>12436.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:8">
+    <x:row r="25">
       <x:c r="A25" s="0">
         <x:v>3007</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C25" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E25" s="0">
         <x:v>10</x:v>
@@ -1129,18 +1312,18 @@
         <x:v>12436.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:8">
+    <x:row r="26">
       <x:c r="A26" s="0">
         <x:v>3007</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C26" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E26" s="0">
         <x:v>2</x:v>
@@ -1155,18 +1338,18 @@
         <x:v>12436.06</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:8">
+    <x:row r="27">
       <x:c r="A27" s="0">
         <x:v>3008</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C27" s="2">
         <x:v>45147</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E27" s="0">
         <x:v>7</x:v>
@@ -1181,18 +1364,18 @@
         <x:v>16351.86</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:8">
+    <x:row r="28">
       <x:c r="A28" s="0">
         <x:v>3008</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C28" s="2">
         <x:v>45147</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E28" s="0">
         <x:v>7</x:v>
@@ -1207,18 +1390,18 @@
         <x:v>16351.86</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:8">
+    <x:row r="29">
       <x:c r="A29" s="0">
         <x:v>3009</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C29" s="2">
         <x:v>45148</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E29" s="0">
         <x:v>8</x:v>
@@ -1233,18 +1416,18 @@
         <x:v>23349.92</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:8">
+    <x:row r="30">
       <x:c r="A30" s="0">
         <x:v>3009</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C30" s="2">
         <x:v>45148</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E30" s="0">
         <x:v>7</x:v>
@@ -1259,18 +1442,18 @@
         <x:v>23349.92</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:8">
+    <x:row r="31">
       <x:c r="A31" s="0">
         <x:v>3009</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C31" s="2">
         <x:v>45148</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E31" s="0">
         <x:v>4</x:v>
@@ -1285,18 +1468,18 @@
         <x:v>23349.92</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:8">
+    <x:row r="32">
       <x:c r="A32" s="0">
         <x:v>3009</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C32" s="2">
         <x:v>45148</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E32" s="0">
         <x:v>4</x:v>
@@ -1311,18 +1494,18 @@
         <x:v>23349.92</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:8">
+    <x:row r="33">
       <x:c r="A33" s="0">
         <x:v>3009</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C33" s="2">
         <x:v>45148</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E33" s="0">
         <x:v>7</x:v>
@@ -1337,18 +1520,18 @@
         <x:v>23349.92</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:8">
+    <x:row r="34">
       <x:c r="A34" s="0">
         <x:v>3010</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C34" s="2">
         <x:v>45149</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E34" s="0">
         <x:v>1</x:v>
@@ -1363,18 +1546,18 @@
         <x:v>18120.79</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:8">
+    <x:row r="35">
       <x:c r="A35" s="0">
         <x:v>3010</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:v>45149</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E35" s="0">
         <x:v>4</x:v>
@@ -1389,18 +1572,18 @@
         <x:v>18120.79</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:8">
+    <x:row r="36">
       <x:c r="A36" s="0">
         <x:v>3010</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C36" s="2">
         <x:v>45149</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E36" s="0">
         <x:v>9</x:v>
@@ -1415,18 +1598,18 @@
         <x:v>18120.79</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:8">
+    <x:row r="37">
       <x:c r="A37" s="0">
         <x:v>3011</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C37" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E37" s="0">
         <x:v>2</x:v>
@@ -1441,18 +1624,18 @@
         <x:v>16016.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:8">
+    <x:row r="38">
       <x:c r="A38" s="0">
         <x:v>3011</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C38" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E38" s="0">
         <x:v>6</x:v>
@@ -1467,18 +1650,18 @@
         <x:v>16016.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:8">
+    <x:row r="39">
       <x:c r="A39" s="0">
         <x:v>3011</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C39" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E39" s="0">
         <x:v>8</x:v>
@@ -1493,18 +1676,18 @@
         <x:v>16016.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:8">
+    <x:row r="40">
       <x:c r="A40" s="0">
         <x:v>3012</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C40" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E40" s="0">
         <x:v>7</x:v>
@@ -1519,18 +1702,18 @@
         <x:v>27855.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:8">
+    <x:row r="41">
       <x:c r="A41" s="0">
         <x:v>3012</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C41" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E41" s="0">
         <x:v>8</x:v>
@@ -1545,18 +1728,18 @@
         <x:v>27855.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:8">
+    <x:row r="42">
       <x:c r="A42" s="0">
         <x:v>3012</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C42" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E42" s="0">
         <x:v>8</x:v>
@@ -1571,18 +1754,18 @@
         <x:v>27855.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:8">
+    <x:row r="43">
       <x:c r="A43" s="0">
         <x:v>3012</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C43" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E43" s="0">
         <x:v>8</x:v>
@@ -1597,18 +1780,18 @@
         <x:v>27855.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:8">
+    <x:row r="44">
       <x:c r="A44" s="0">
         <x:v>3012</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C44" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E44" s="0">
         <x:v>4</x:v>
@@ -1623,18 +1806,18 @@
         <x:v>27855.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:8">
+    <x:row r="45">
       <x:c r="A45" s="0">
         <x:v>3013</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="2">
         <x:v>45152</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E45" s="0">
         <x:v>1</x:v>
@@ -1649,18 +1832,18 @@
         <x:v>4677.21</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:8">
+    <x:row r="46">
       <x:c r="A46" s="0">
         <x:v>3013</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C46" s="2">
         <x:v>45152</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E46" s="0">
         <x:v>9</x:v>
@@ -1675,18 +1858,18 @@
         <x:v>4677.21</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:8">
+    <x:row r="47">
       <x:c r="A47" s="0">
         <x:v>3013</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C47" s="2">
         <x:v>45152</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E47" s="0">
         <x:v>4</x:v>
@@ -1701,18 +1884,18 @@
         <x:v>4677.21</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:8">
+    <x:row r="48">
       <x:c r="A48" s="0">
         <x:v>3014</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C48" s="2">
         <x:v>45153</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E48" s="0">
         <x:v>6</x:v>
@@ -1727,18 +1910,18 @@
         <x:v>11677.27</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:8">
+    <x:row r="49">
       <x:c r="A49" s="0">
         <x:v>3014</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C49" s="2">
         <x:v>45153</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E49" s="0">
         <x:v>1</x:v>
@@ -1753,18 +1936,18 @@
         <x:v>11677.27</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:8">
+    <x:row r="50">
       <x:c r="A50" s="0">
         <x:v>3014</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C50" s="2">
         <x:v>45153</x:v>
       </x:c>
       <x:c r="D50" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E50" s="0">
         <x:v>1</x:v>
@@ -1779,18 +1962,18 @@
         <x:v>11677.27</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:8">
+    <x:row r="51">
       <x:c r="A51" s="0">
         <x:v>3015</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C51" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E51" s="0">
         <x:v>9</x:v>
@@ -1805,18 +1988,18 @@
         <x:v>45900.51</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:8">
+    <x:row r="52">
       <x:c r="A52" s="0">
         <x:v>3015</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C52" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E52" s="0">
         <x:v>8</x:v>
@@ -1831,18 +2014,18 @@
         <x:v>45900.51</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:8">
+    <x:row r="53">
       <x:c r="A53" s="0">
         <x:v>3015</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C53" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E53" s="0">
         <x:v>9</x:v>
@@ -1857,18 +2040,18 @@
         <x:v>45900.51</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:8">
+    <x:row r="54">
       <x:c r="A54" s="0">
         <x:v>3015</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C54" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E54" s="0">
         <x:v>5</x:v>
@@ -1883,18 +2066,18 @@
         <x:v>45900.51</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:8">
+    <x:row r="55">
       <x:c r="A55" s="0">
         <x:v>3016</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C55" s="2">
         <x:v>45155</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E55" s="0">
         <x:v>4</x:v>
@@ -1909,18 +2092,18 @@
         <x:v>4932.84</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:8">
+    <x:row r="56">
       <x:c r="A56" s="0">
         <x:v>3017</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C56" s="2">
         <x:v>45156</x:v>
       </x:c>
       <x:c r="D56" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E56" s="0">
         <x:v>4</x:v>
@@ -1935,18 +2118,18 @@
         <x:v>7621.72</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:8">
+    <x:row r="57">
       <x:c r="A57" s="0">
         <x:v>3018</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C57" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E57" s="0">
         <x:v>3</x:v>
@@ -1961,18 +2144,18 @@
         <x:v>14573.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:8">
+    <x:row r="58">
       <x:c r="A58" s="0">
         <x:v>3018</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C58" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E58" s="0">
         <x:v>9</x:v>
@@ -1987,18 +2170,18 @@
         <x:v>14573.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:8">
+    <x:row r="59">
       <x:c r="A59" s="0">
         <x:v>3018</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C59" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D59" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E59" s="0">
         <x:v>3</x:v>
@@ -2013,18 +2196,18 @@
         <x:v>14573.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:8">
+    <x:row r="60">
       <x:c r="A60" s="0">
         <x:v>3019</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C60" s="2">
         <x:v>45158</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E60" s="0">
         <x:v>2</x:v>
@@ -2039,18 +2222,18 @@
         <x:v>23212.36</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:8">
+    <x:row r="61">
       <x:c r="A61" s="0">
         <x:v>3019</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C61" s="2">
         <x:v>45158</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E61" s="0">
         <x:v>10</x:v>
@@ -2065,18 +2248,18 @@
         <x:v>23212.36</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:8">
+    <x:row r="62">
       <x:c r="A62" s="0">
         <x:v>3019</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C62" s="2">
         <x:v>45158</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E62" s="0">
         <x:v>3</x:v>
@@ -2091,18 +2274,18 @@
         <x:v>23212.36</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:8">
+    <x:row r="63">
       <x:c r="A63" s="0">
         <x:v>3019</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C63" s="2">
         <x:v>45158</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E63" s="0">
         <x:v>6</x:v>
@@ -2117,18 +2300,18 @@
         <x:v>23212.36</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:8">
+    <x:row r="64">
       <x:c r="A64" s="0">
         <x:v>3020</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C64" s="2">
         <x:v>45159</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E64" s="0">
         <x:v>7</x:v>
@@ -2143,18 +2326,18 @@
         <x:v>8631.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:8">
+    <x:row r="65">
       <x:c r="A65" s="0">
         <x:v>3020</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C65" s="2">
         <x:v>45159</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E65" s="0">
         <x:v>2</x:v>
@@ -2169,18 +2352,18 @@
         <x:v>8631.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:8">
+    <x:row r="66">
       <x:c r="A66" s="0">
         <x:v>3020</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C66" s="2">
         <x:v>45159</x:v>
       </x:c>
       <x:c r="D66" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E66" s="0">
         <x:v>6</x:v>
@@ -2195,18 +2378,18 @@
         <x:v>8631.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:8">
+    <x:row r="67">
       <x:c r="A67" s="0">
         <x:v>3020</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C67" s="2">
         <x:v>45159</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E67" s="0">
         <x:v>4</x:v>
@@ -2221,18 +2404,18 @@
         <x:v>8631.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:8">
+    <x:row r="68">
       <x:c r="A68" s="0">
         <x:v>3021</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C68" s="2">
         <x:v>45160</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E68" s="0">
         <x:v>3</x:v>
@@ -2247,18 +2430,18 @@
         <x:v>5064.09</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:8">
+    <x:row r="69">
       <x:c r="A69" s="0">
         <x:v>3022</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C69" s="2">
         <x:v>45161</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E69" s="0">
         <x:v>4</x:v>
@@ -2273,18 +2456,18 @@
         <x:v>16121.17</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:8">
+    <x:row r="70">
       <x:c r="A70" s="0">
         <x:v>3022</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C70" s="2">
         <x:v>45161</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E70" s="0">
         <x:v>7</x:v>
@@ -2299,18 +2482,18 @@
         <x:v>16121.17</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:8">
+    <x:row r="71">
       <x:c r="A71" s="0">
         <x:v>3022</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C71" s="2">
         <x:v>45161</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E71" s="0">
         <x:v>1</x:v>
@@ -2325,18 +2508,18 @@
         <x:v>16121.17</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:8">
+    <x:row r="72">
       <x:c r="A72" s="0">
         <x:v>3022</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C72" s="2">
         <x:v>45161</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E72" s="0">
         <x:v>6</x:v>
@@ -2351,18 +2534,18 @@
         <x:v>16121.17</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:8">
+    <x:row r="73">
       <x:c r="A73" s="0">
         <x:v>3023</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C73" s="2">
         <x:v>45162</x:v>
       </x:c>
       <x:c r="D73" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E73" s="0">
         <x:v>7</x:v>
@@ -2377,18 +2560,18 @@
         <x:v>43939.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:8">
+    <x:row r="74">
       <x:c r="A74" s="0">
         <x:v>3023</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C74" s="2">
         <x:v>45162</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E74" s="0">
         <x:v>7</x:v>
@@ -2403,18 +2586,18 @@
         <x:v>43939.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:8">
+    <x:row r="75">
       <x:c r="A75" s="0">
         <x:v>3023</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C75" s="2">
         <x:v>45162</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E75" s="0">
         <x:v>9</x:v>
@@ -2429,18 +2612,18 @@
         <x:v>43939.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:8">
+    <x:row r="76">
       <x:c r="A76" s="0">
         <x:v>3023</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C76" s="2">
         <x:v>45162</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E76" s="0">
         <x:v>10</x:v>
@@ -2455,18 +2638,18 @@
         <x:v>43939.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:8">
+    <x:row r="77">
       <x:c r="A77" s="0">
         <x:v>3023</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C77" s="2">
         <x:v>45162</x:v>
       </x:c>
       <x:c r="D77" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E77" s="0">
         <x:v>6</x:v>
@@ -2481,18 +2664,18 @@
         <x:v>43939.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:8">
+    <x:row r="78">
       <x:c r="A78" s="0">
         <x:v>3024</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C78" s="2">
         <x:v>45163</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E78" s="0">
         <x:v>10</x:v>
@@ -2507,18 +2690,18 @@
         <x:v>5300.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:8">
+    <x:row r="79">
       <x:c r="A79" s="0">
         <x:v>3024</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C79" s="2">
         <x:v>45163</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E79" s="0">
         <x:v>1</x:v>
@@ -2533,18 +2716,18 @@
         <x:v>5300.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:8">
+    <x:row r="80">
       <x:c r="A80" s="0">
         <x:v>3024</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C80" s="2">
         <x:v>45163</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E80" s="0">
         <x:v>1</x:v>
@@ -2559,18 +2742,18 @@
         <x:v>5300.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:8">
+    <x:row r="81">
       <x:c r="A81" s="0">
         <x:v>3024</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C81" s="2">
         <x:v>45163</x:v>
       </x:c>
       <x:c r="D81" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E81" s="0">
         <x:v>1</x:v>
@@ -2585,18 +2768,18 @@
         <x:v>5300.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:8">
+    <x:row r="82">
       <x:c r="A82" s="0">
         <x:v>3024</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C82" s="2">
         <x:v>45163</x:v>
       </x:c>
       <x:c r="D82" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E82" s="0">
         <x:v>9</x:v>
@@ -2611,18 +2794,18 @@
         <x:v>5300.46</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:8">
+    <x:row r="83">
       <x:c r="A83" s="0">
         <x:v>3025</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C83" s="2">
         <x:v>45164</x:v>
       </x:c>
       <x:c r="D83" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E83" s="0">
         <x:v>2</x:v>
@@ -2637,18 +2820,18 @@
         <x:v>34737.29</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:8">
+    <x:row r="84">
       <x:c r="A84" s="0">
         <x:v>3025</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C84" s="2">
         <x:v>45164</x:v>
       </x:c>
       <x:c r="D84" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E84" s="0">
         <x:v>10</x:v>
@@ -2663,18 +2846,18 @@
         <x:v>34737.29</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:8">
+    <x:row r="85">
       <x:c r="A85" s="0">
         <x:v>3025</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C85" s="2">
         <x:v>45164</x:v>
       </x:c>
       <x:c r="D85" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E85" s="0">
         <x:v>8</x:v>
@@ -2689,18 +2872,18 @@
         <x:v>34737.29</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:8">
+    <x:row r="86">
       <x:c r="A86" s="0">
         <x:v>3025</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C86" s="2">
         <x:v>45164</x:v>
       </x:c>
       <x:c r="D86" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E86" s="0">
         <x:v>9</x:v>
@@ -2715,18 +2898,18 @@
         <x:v>34737.29</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:8">
+    <x:row r="87">
       <x:c r="A87" s="0">
         <x:v>3025</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C87" s="2">
         <x:v>45164</x:v>
       </x:c>
       <x:c r="D87" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E87" s="0">
         <x:v>4</x:v>
@@ -2741,18 +2924,18 @@
         <x:v>34737.29</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:8">
+    <x:row r="88">
       <x:c r="A88" s="0">
         <x:v>3026</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C88" s="2">
         <x:v>45165</x:v>
       </x:c>
       <x:c r="D88" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E88" s="0">
         <x:v>2</x:v>
@@ -2767,18 +2950,18 @@
         <x:v>16374.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:8">
+    <x:row r="89">
       <x:c r="A89" s="0">
         <x:v>3026</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C89" s="2">
         <x:v>45165</x:v>
       </x:c>
       <x:c r="D89" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E89" s="0">
         <x:v>3</x:v>
@@ -2793,18 +2976,18 @@
         <x:v>16374.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:8">
+    <x:row r="90">
       <x:c r="A90" s="0">
         <x:v>3026</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C90" s="2">
         <x:v>45165</x:v>
       </x:c>
       <x:c r="D90" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E90" s="0">
         <x:v>4</x:v>
@@ -2819,18 +3002,18 @@
         <x:v>16374.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:8">
+    <x:row r="91">
       <x:c r="A91" s="0">
         <x:v>3026</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C91" s="2">
         <x:v>45165</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E91" s="0">
         <x:v>10</x:v>
@@ -2845,18 +3028,18 @@
         <x:v>16374.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:8">
+    <x:row r="92">
       <x:c r="A92" s="0">
         <x:v>3027</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C92" s="2">
         <x:v>45166</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E92" s="0">
         <x:v>3</x:v>
@@ -2871,18 +3054,18 @@
         <x:v>7830.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:8">
+    <x:row r="93">
       <x:c r="A93" s="0">
         <x:v>3027</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C93" s="2">
         <x:v>45166</x:v>
       </x:c>
       <x:c r="D93" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E93" s="0">
         <x:v>3</x:v>
@@ -2897,18 +3080,18 @@
         <x:v>7830.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:8">
+    <x:row r="94">
       <x:c r="A94" s="0">
         <x:v>3028</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C94" s="2">
         <x:v>45167</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E94" s="0">
         <x:v>3</x:v>
@@ -2923,18 +3106,18 @@
         <x:v>1605.51</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:8">
+    <x:row r="95">
       <x:c r="A95" s="0">
         <x:v>3029</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C95" s="2">
         <x:v>45168</x:v>
       </x:c>
       <x:c r="D95" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E95" s="0">
         <x:v>6</x:v>
@@ -2949,18 +3132,18 @@
         <x:v>12018.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:8">
+    <x:row r="96">
       <x:c r="A96" s="0">
         <x:v>3029</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C96" s="2">
         <x:v>45168</x:v>
       </x:c>
       <x:c r="D96" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E96" s="0">
         <x:v>6</x:v>
@@ -2975,18 +3158,18 @@
         <x:v>12018.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:8">
+    <x:row r="97">
       <x:c r="A97" s="0">
         <x:v>3030</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C97" s="2">
         <x:v>45139</x:v>
       </x:c>
       <x:c r="D97" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E97" s="0">
         <x:v>10</x:v>
@@ -3001,18 +3184,18 @@
         <x:v>33583.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:8">
+    <x:row r="98">
       <x:c r="A98" s="0">
         <x:v>3030</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C98" s="2">
         <x:v>45139</x:v>
       </x:c>
       <x:c r="D98" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E98" s="0">
         <x:v>9</x:v>
@@ -3027,18 +3210,18 @@
         <x:v>33583.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:8">
+    <x:row r="99">
       <x:c r="A99" s="0">
         <x:v>3030</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C99" s="2">
         <x:v>45139</x:v>
       </x:c>
       <x:c r="D99" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E99" s="0">
         <x:v>7</x:v>
@@ -3053,18 +3236,18 @@
         <x:v>33583.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:8">
+    <x:row r="100">
       <x:c r="A100" s="0">
         <x:v>3031</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C100" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D100" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E100" s="0">
         <x:v>2</x:v>
@@ -3079,18 +3262,18 @@
         <x:v>15667.14</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:8">
+    <x:row r="101">
       <x:c r="A101" s="0">
         <x:v>3031</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C101" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E101" s="0">
         <x:v>5</x:v>
@@ -3105,18 +3288,18 @@
         <x:v>15667.14</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:8">
+    <x:row r="102">
       <x:c r="A102" s="0">
         <x:v>3031</x:v>
       </x:c>
       <x:c r="B102" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C102" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D102" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E102" s="0">
         <x:v>3</x:v>
@@ -3131,18 +3314,18 @@
         <x:v>15667.14</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:8">
+    <x:row r="103">
       <x:c r="A103" s="0">
         <x:v>3031</x:v>
       </x:c>
       <x:c r="B103" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C103" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D103" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E103" s="0">
         <x:v>3</x:v>
@@ -3157,18 +3340,18 @@
         <x:v>15667.14</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:8">
+    <x:row r="104">
       <x:c r="A104" s="0">
         <x:v>3031</x:v>
       </x:c>
       <x:c r="B104" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C104" s="2">
         <x:v>45140</x:v>
       </x:c>
       <x:c r="D104" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E104" s="0">
         <x:v>9</x:v>
@@ -3183,18 +3366,18 @@
         <x:v>15667.14</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:8">
+    <x:row r="105">
       <x:c r="A105" s="0">
         <x:v>3032</x:v>
       </x:c>
       <x:c r="B105" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C105" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D105" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E105" s="0">
         <x:v>5</x:v>
@@ -3209,18 +3392,18 @@
         <x:v>59019.74</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:8">
+    <x:row r="106">
       <x:c r="A106" s="0">
         <x:v>3032</x:v>
       </x:c>
       <x:c r="B106" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C106" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E106" s="0">
         <x:v>9</x:v>
@@ -3235,18 +3418,18 @@
         <x:v>59019.74</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:8">
+    <x:row r="107">
       <x:c r="A107" s="0">
         <x:v>3032</x:v>
       </x:c>
       <x:c r="B107" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C107" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E107" s="0">
         <x:v>10</x:v>
@@ -3261,18 +3444,18 @@
         <x:v>59019.74</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:8">
+    <x:row r="108">
       <x:c r="A108" s="0">
         <x:v>3032</x:v>
       </x:c>
       <x:c r="B108" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C108" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D108" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E108" s="0">
         <x:v>6</x:v>
@@ -3287,18 +3470,18 @@
         <x:v>59019.74</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:8">
+    <x:row r="109">
       <x:c r="A109" s="0">
         <x:v>3032</x:v>
       </x:c>
       <x:c r="B109" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C109" s="2">
         <x:v>45141</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E109" s="0">
         <x:v>7</x:v>
@@ -3313,18 +3496,18 @@
         <x:v>59019.74</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:8">
+    <x:row r="110">
       <x:c r="A110" s="0">
         <x:v>3033</x:v>
       </x:c>
       <x:c r="B110" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C110" s="2">
         <x:v>45142</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E110" s="0">
         <x:v>9</x:v>
@@ -3339,18 +3522,18 @@
         <x:v>14443.38</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:8">
+    <x:row r="111">
       <x:c r="A111" s="0">
         <x:v>3034</x:v>
       </x:c>
       <x:c r="B111" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C111" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E111" s="0">
         <x:v>9</x:v>
@@ -3365,18 +3548,18 @@
         <x:v>23268.32</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:8">
+    <x:row r="112">
       <x:c r="A112" s="0">
         <x:v>3034</x:v>
       </x:c>
       <x:c r="B112" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C112" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E112" s="0">
         <x:v>7</x:v>
@@ -3391,18 +3574,18 @@
         <x:v>23268.32</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:8">
+    <x:row r="113">
       <x:c r="A113" s="0">
         <x:v>3034</x:v>
       </x:c>
       <x:c r="B113" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C113" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D113" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E113" s="0">
         <x:v>5</x:v>
@@ -3417,18 +3600,18 @@
         <x:v>23268.32</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:8">
+    <x:row r="114">
       <x:c r="A114" s="0">
         <x:v>3034</x:v>
       </x:c>
       <x:c r="B114" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C114" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D114" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E114" s="0">
         <x:v>5</x:v>
@@ -3443,18 +3626,18 @@
         <x:v>23268.32</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:8">
+    <x:row r="115">
       <x:c r="A115" s="0">
         <x:v>3034</x:v>
       </x:c>
       <x:c r="B115" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C115" s="2">
         <x:v>45143</x:v>
       </x:c>
       <x:c r="D115" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E115" s="0">
         <x:v>7</x:v>
@@ -3469,18 +3652,18 @@
         <x:v>23268.32</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:8">
+    <x:row r="116">
       <x:c r="A116" s="0">
         <x:v>3035</x:v>
       </x:c>
       <x:c r="B116" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C116" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D116" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E116" s="0">
         <x:v>2</x:v>
@@ -3495,18 +3678,18 @@
         <x:v>34371.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:8">
+    <x:row r="117">
       <x:c r="A117" s="0">
         <x:v>3035</x:v>
       </x:c>
       <x:c r="B117" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C117" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D117" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E117" s="0">
         <x:v>5</x:v>
@@ -3521,18 +3704,18 @@
         <x:v>34371.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:8">
+    <x:row r="118">
       <x:c r="A118" s="0">
         <x:v>3035</x:v>
       </x:c>
       <x:c r="B118" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C118" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E118" s="0">
         <x:v>3</x:v>
@@ -3547,18 +3730,18 @@
         <x:v>34371.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:8">
+    <x:row r="119">
       <x:c r="A119" s="0">
         <x:v>3035</x:v>
       </x:c>
       <x:c r="B119" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C119" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D119" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E119" s="0">
         <x:v>7</x:v>
@@ -3573,18 +3756,18 @@
         <x:v>34371.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:8">
+    <x:row r="120">
       <x:c r="A120" s="0">
         <x:v>3035</x:v>
       </x:c>
       <x:c r="B120" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C120" s="2">
         <x:v>45144</x:v>
       </x:c>
       <x:c r="D120" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E120" s="0">
         <x:v>10</x:v>
@@ -3599,18 +3782,18 @@
         <x:v>34371.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:8">
+    <x:row r="121">
       <x:c r="A121" s="0">
         <x:v>3036</x:v>
       </x:c>
       <x:c r="B121" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C121" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D121" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E121" s="0">
         <x:v>6</x:v>
@@ -3625,18 +3808,18 @@
         <x:v>26297.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:8">
+    <x:row r="122">
       <x:c r="A122" s="0">
         <x:v>3036</x:v>
       </x:c>
       <x:c r="B122" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C122" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D122" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E122" s="0">
         <x:v>3</x:v>
@@ -3651,18 +3834,18 @@
         <x:v>26297.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:8">
+    <x:row r="123">
       <x:c r="A123" s="0">
         <x:v>3036</x:v>
       </x:c>
       <x:c r="B123" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C123" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D123" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E123" s="0">
         <x:v>5</x:v>
@@ -3677,18 +3860,18 @@
         <x:v>26297.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:8">
+    <x:row r="124">
       <x:c r="A124" s="0">
         <x:v>3036</x:v>
       </x:c>
       <x:c r="B124" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C124" s="2">
         <x:v>45145</x:v>
       </x:c>
       <x:c r="D124" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E124" s="0">
         <x:v>5</x:v>
@@ -3703,18 +3886,18 @@
         <x:v>26297.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:8">
+    <x:row r="125">
       <x:c r="A125" s="0">
         <x:v>3037</x:v>
       </x:c>
       <x:c r="B125" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C125" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D125" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E125" s="0">
         <x:v>10</x:v>
@@ -3729,18 +3912,18 @@
         <x:v>31839.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:8">
+    <x:row r="126">
       <x:c r="A126" s="0">
         <x:v>3037</x:v>
       </x:c>
       <x:c r="B126" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C126" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D126" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E126" s="0">
         <x:v>3</x:v>
@@ -3755,18 +3938,18 @@
         <x:v>31839.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:8">
+    <x:row r="127">
       <x:c r="A127" s="0">
         <x:v>3037</x:v>
       </x:c>
       <x:c r="B127" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C127" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D127" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E127" s="0">
         <x:v>4</x:v>
@@ -3781,18 +3964,18 @@
         <x:v>31839.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:8">
+    <x:row r="128">
       <x:c r="A128" s="0">
         <x:v>3037</x:v>
       </x:c>
       <x:c r="B128" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C128" s="2">
         <x:v>45146</x:v>
       </x:c>
       <x:c r="D128" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E128" s="0">
         <x:v>10</x:v>
@@ -3807,18 +3990,18 @@
         <x:v>31839.69</x:v>
       </x:c>
     </x:row>
-    <x:row r="129" spans="1:8">
+    <x:row r="129">
       <x:c r="A129" s="0">
         <x:v>3038</x:v>
       </x:c>
       <x:c r="B129" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C129" s="2">
         <x:v>45147</x:v>
       </x:c>
       <x:c r="D129" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E129" s="0">
         <x:v>9</x:v>
@@ -3833,18 +4016,18 @@
         <x:v>9129.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:8">
+    <x:row r="130">
       <x:c r="A130" s="0">
         <x:v>3038</x:v>
       </x:c>
       <x:c r="B130" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C130" s="2">
         <x:v>45147</x:v>
       </x:c>
       <x:c r="D130" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E130" s="0">
         <x:v>4</x:v>
@@ -3859,18 +4042,18 @@
         <x:v>9129.82</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:8">
+    <x:row r="131">
       <x:c r="A131" s="0">
         <x:v>3039</x:v>
       </x:c>
       <x:c r="B131" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C131" s="2">
         <x:v>45148</x:v>
       </x:c>
       <x:c r="D131" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E131" s="0">
         <x:v>5</x:v>
@@ -3885,18 +4068,18 @@
         <x:v>204.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:8">
+    <x:row r="132">
       <x:c r="A132" s="0">
         <x:v>3040</x:v>
       </x:c>
       <x:c r="B132" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C132" s="2">
         <x:v>45149</x:v>
       </x:c>
       <x:c r="D132" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E132" s="0">
         <x:v>10</x:v>
@@ -3911,18 +4094,18 @@
         <x:v>31887.56</x:v>
       </x:c>
     </x:row>
-    <x:row r="133" spans="1:8">
+    <x:row r="133">
       <x:c r="A133" s="0">
         <x:v>3040</x:v>
       </x:c>
       <x:c r="B133" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C133" s="2">
         <x:v>45149</x:v>
       </x:c>
       <x:c r="D133" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E133" s="0">
         <x:v>8</x:v>
@@ -3937,18 +4120,18 @@
         <x:v>31887.56</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:8">
+    <x:row r="134">
       <x:c r="A134" s="0">
         <x:v>3040</x:v>
       </x:c>
       <x:c r="B134" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C134" s="2">
         <x:v>45149</x:v>
       </x:c>
       <x:c r="D134" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E134" s="0">
         <x:v>10</x:v>
@@ -3963,18 +4146,18 @@
         <x:v>31887.56</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:8">
+    <x:row r="135">
       <x:c r="A135" s="0">
         <x:v>3041</x:v>
       </x:c>
       <x:c r="B135" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C135" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D135" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E135" s="0">
         <x:v>7</x:v>
@@ -3989,18 +4172,18 @@
         <x:v>17700.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:8">
+    <x:row r="136">
       <x:c r="A136" s="0">
         <x:v>3041</x:v>
       </x:c>
       <x:c r="B136" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C136" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D136" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E136" s="0">
         <x:v>4</x:v>
@@ -4015,18 +4198,18 @@
         <x:v>17700.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:8">
+    <x:row r="137">
       <x:c r="A137" s="0">
         <x:v>3041</x:v>
       </x:c>
       <x:c r="B137" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C137" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D137" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E137" s="0">
         <x:v>5</x:v>
@@ -4041,18 +4224,18 @@
         <x:v>17700.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:8">
+    <x:row r="138">
       <x:c r="A138" s="0">
         <x:v>3041</x:v>
       </x:c>
       <x:c r="B138" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C138" s="2">
         <x:v>45150</x:v>
       </x:c>
       <x:c r="D138" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E138" s="0">
         <x:v>4</x:v>
@@ -4067,18 +4250,18 @@
         <x:v>17700.59</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:8">
+    <x:row r="139">
       <x:c r="A139" s="0">
         <x:v>3042</x:v>
       </x:c>
       <x:c r="B139" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C139" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D139" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E139" s="0">
         <x:v>4</x:v>
@@ -4093,18 +4276,18 @@
         <x:v>13236.47</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:8">
+    <x:row r="140">
       <x:c r="A140" s="0">
         <x:v>3042</x:v>
       </x:c>
       <x:c r="B140" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C140" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D140" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E140" s="0">
         <x:v>9</x:v>
@@ -4119,18 +4302,18 @@
         <x:v>13236.47</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:8">
+    <x:row r="141">
       <x:c r="A141" s="0">
         <x:v>3042</x:v>
       </x:c>
       <x:c r="B141" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C141" s="2">
         <x:v>45151</x:v>
       </x:c>
       <x:c r="D141" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E141" s="0">
         <x:v>5</x:v>
@@ -4145,18 +4328,18 @@
         <x:v>13236.47</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:8">
+    <x:row r="142">
       <x:c r="A142" s="0">
         <x:v>3043</x:v>
       </x:c>
       <x:c r="B142" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C142" s="2">
         <x:v>45152</x:v>
       </x:c>
       <x:c r="D142" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E142" s="0">
         <x:v>9</x:v>
@@ -4171,18 +4354,18 @@
         <x:v>14879.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:8">
+    <x:row r="143">
       <x:c r="A143" s="0">
         <x:v>3043</x:v>
       </x:c>
       <x:c r="B143" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C143" s="2">
         <x:v>45152</x:v>
       </x:c>
       <x:c r="D143" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E143" s="0">
         <x:v>4</x:v>
@@ -4197,18 +4380,18 @@
         <x:v>14879.08</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:8">
+    <x:row r="144">
       <x:c r="A144" s="0">
         <x:v>3044</x:v>
       </x:c>
       <x:c r="B144" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C144" s="2">
         <x:v>45153</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E144" s="0">
         <x:v>2</x:v>
@@ -4223,18 +4406,18 @@
         <x:v>2047.14</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:8">
+    <x:row r="145">
       <x:c r="A145" s="0">
         <x:v>3045</x:v>
       </x:c>
       <x:c r="B145" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C145" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E145" s="0">
         <x:v>7</x:v>
@@ -4249,18 +4432,18 @@
         <x:v>19594.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:8">
+    <x:row r="146">
       <x:c r="A146" s="0">
         <x:v>3045</x:v>
       </x:c>
       <x:c r="B146" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C146" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E146" s="0">
         <x:v>4</x:v>
@@ -4275,18 +4458,18 @@
         <x:v>19594.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:8">
+    <x:row r="147">
       <x:c r="A147" s="0">
         <x:v>3045</x:v>
       </x:c>
       <x:c r="B147" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C147" s="2">
         <x:v>45154</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E147" s="0">
         <x:v>5</x:v>
@@ -4301,18 +4484,18 @@
         <x:v>19594.03</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:8">
+    <x:row r="148">
       <x:c r="A148" s="0">
         <x:v>3046</x:v>
       </x:c>
       <x:c r="B148" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C148" s="2">
         <x:v>45155</x:v>
       </x:c>
       <x:c r="D148" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E148" s="0">
         <x:v>10</x:v>
@@ -4327,18 +4510,18 @@
         <x:v>55962.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:8">
+    <x:row r="149">
       <x:c r="A149" s="0">
         <x:v>3046</x:v>
       </x:c>
       <x:c r="B149" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C149" s="2">
         <x:v>45155</x:v>
       </x:c>
       <x:c r="D149" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E149" s="0">
         <x:v>8</x:v>
@@ -4353,18 +4536,18 @@
         <x:v>55962.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:8">
+    <x:row r="150">
       <x:c r="A150" s="0">
         <x:v>3046</x:v>
       </x:c>
       <x:c r="B150" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C150" s="2">
         <x:v>45155</x:v>
       </x:c>
       <x:c r="D150" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E150" s="0">
         <x:v>10</x:v>
@@ -4379,18 +4562,18 @@
         <x:v>55962.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:8">
+    <x:row r="151">
       <x:c r="A151" s="0">
         <x:v>3046</x:v>
       </x:c>
       <x:c r="B151" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C151" s="2">
         <x:v>45155</x:v>
       </x:c>
       <x:c r="D151" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E151" s="0">
         <x:v>9</x:v>
@@ -4405,18 +4588,18 @@
         <x:v>55962.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:8">
+    <x:row r="152">
       <x:c r="A152" s="0">
         <x:v>3046</x:v>
       </x:c>
       <x:c r="B152" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C152" s="2">
         <x:v>45155</x:v>
       </x:c>
       <x:c r="D152" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E152" s="0">
         <x:v>2</x:v>
@@ -4431,18 +4614,18 @@
         <x:v>55962.66</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:8">
+    <x:row r="153">
       <x:c r="A153" s="0">
         <x:v>3047</x:v>
       </x:c>
       <x:c r="B153" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C153" s="2">
         <x:v>45156</x:v>
       </x:c>
       <x:c r="D153" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E153" s="0">
         <x:v>5</x:v>
@@ -4457,18 +4640,18 @@
         <x:v>11484.53</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:8">
+    <x:row r="154">
       <x:c r="A154" s="0">
         <x:v>3047</x:v>
       </x:c>
       <x:c r="B154" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C154" s="2">
         <x:v>45156</x:v>
       </x:c>
       <x:c r="D154" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E154" s="0">
         <x:v>2</x:v>
@@ -4483,18 +4666,18 @@
         <x:v>11484.53</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:8">
+    <x:row r="155">
       <x:c r="A155" s="0">
         <x:v>3047</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C155" s="2">
         <x:v>45156</x:v>
       </x:c>
       <x:c r="D155" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E155" s="0">
         <x:v>2</x:v>
@@ -4509,18 +4692,18 @@
         <x:v>11484.53</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:8">
+    <x:row r="156">
       <x:c r="A156" s="0">
         <x:v>3047</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C156" s="2">
         <x:v>45156</x:v>
       </x:c>
       <x:c r="D156" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E156" s="0">
         <x:v>8</x:v>
@@ -4535,18 +4718,18 @@
         <x:v>11484.53</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:8">
+    <x:row r="157">
       <x:c r="A157" s="0">
         <x:v>3048</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C157" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D157" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E157" s="0">
         <x:v>4</x:v>
@@ -4561,18 +4744,18 @@
         <x:v>18529.99</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:8">
+    <x:row r="158">
       <x:c r="A158" s="0">
         <x:v>3048</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C158" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D158" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E158" s="0">
         <x:v>7</x:v>
@@ -4587,18 +4770,18 @@
         <x:v>18529.99</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:8">
+    <x:row r="159">
       <x:c r="A159" s="0">
         <x:v>3048</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C159" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D159" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E159" s="0">
         <x:v>8</x:v>
@@ -4613,18 +4796,18 @@
         <x:v>18529.99</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:8">
+    <x:row r="160">
       <x:c r="A160" s="0">
         <x:v>3048</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C160" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D160" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E160" s="0">
         <x:v>5</x:v>
@@ -4639,18 +4822,18 @@
         <x:v>18529.99</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:8">
+    <x:row r="161">
       <x:c r="A161" s="0">
         <x:v>3048</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C161" s="2">
         <x:v>45157</x:v>
       </x:c>
       <x:c r="D161" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E161" s="0">
         <x:v>2</x:v>
@@ -4665,18 +4848,18 @@
         <x:v>18529.99</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:8">
+    <x:row r="162">
       <x:c r="A162" s="0">
         <x:v>3049</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C162" s="2">
         <x:v>45158</x:v>
       </x:c>
       <x:c r="D162" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E162" s="0">
         <x:v>6</x:v>
@@ -4698,4 +4881,90 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="Z1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="Z1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="0">
+        <v>134297.38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="Z2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>131509.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>115735.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="Z4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>109662.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="Z5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>106140.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="Z6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>106083.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="Z7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>85755.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="Z8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>70742.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="Z9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>53696.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>